--- a/force_calculations.xlsx
+++ b/force_calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MaxYoung\OneDrive - Tiger Optics\Documents\commapogo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB2FB7E-5E01-4969-A1E3-BE0FCD35FD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AC5C33-4760-493E-A739-63A351417ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="0" windowWidth="17100" windowHeight="15600" xr2:uid="{6BFD6DE9-8C03-4167-ADB1-1BE53FC596A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6BFD6DE9-8C03-4167-ADB1-1BE53FC596A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,12 +63,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{E0D2AB1C-C41C-4098-BBE1-3588EDA2393F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Max Young:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Note: There will be two magnets holding the unit up. </t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>D73-N52</t>
   </si>
@@ -90,13 +114,16 @@
   <si>
     <t>Safety Factor</t>
   </si>
+  <si>
+    <t>DC3-N52</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -128,7 +155,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -151,20 +178,111 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -180,6 +298,1975 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Safety</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Factor Drop (D73)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.4593175853018369E-4"/>
+                  <c:y val="-0.50192330125400997"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>13.519438760596316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.467993214482089</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.058775055793454</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.252772625093558</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.074475898382305</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5596868254539071</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7544315057690385</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.7135617087130504</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4990882303395447</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1CAC-40F5-B836-7B6A3C9666C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="259307983"/>
+        <c:axId val="320938175"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="259307983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="320938175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="320938175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="259307983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Safety</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Factor Drop (DC3)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.278740157480315E-2"/>
+                  <c:y val="-0.55578885972586756"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$12:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>28.047354574685766</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.940625922801225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.091664142775826</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.419535856815717</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.975047836752047</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.832474614103837</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.087301686022471</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.853324236778752</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2591895286719872</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9107-457E-A9A9-2BA66D327B2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="259307983"/>
+        <c:axId val="320938175"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="259307983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="320938175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="320938175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="259307983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6D5AA3B-550C-4199-910F-653A0291A9B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C406E3A-A82B-4114-BCE2-C02773B08BCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,10 +2566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629D247D-C69E-4F80-AEFB-C1F8182EA819}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,79 +2580,401 @@
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>90</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <f>(9.25/2.2)*SIN(RADIANS(B2))</f>
         <v>4.2045454545454541</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <f>C2*9.8</f>
         <v>41.204545454545453</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <f>0.311*9.8</f>
         <v>3.0478000000000001</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <f>D2/$E$2</f>
         <v>13.519438760596316</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
+        <v>85</v>
+      </c>
+      <c r="C3" s="7">
+        <f>(9.25/2.2)*SIN(RADIANS(B3))</f>
+        <v>4.1885458897039296</v>
+      </c>
+      <c r="D3" s="7">
+        <f>C3*9.8</f>
+        <v>41.047749719098512</v>
+      </c>
+      <c r="E3" s="8">
+        <f>0.311*9.8</f>
+        <v>3.0478000000000001</v>
+      </c>
+      <c r="F3" s="9">
+        <f>D3/$E$2</f>
+        <v>13.467993214482089</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
+        <v>75</v>
+      </c>
+      <c r="C4" s="7">
+        <f>$C$2*SIN(RADIANS(B4))</f>
+        <v>4.0612790423517637</v>
+      </c>
+      <c r="D4" s="7">
+        <f>C4*9.8</f>
+        <v>39.80053461504729</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9">
+        <f>D4/$E$2</f>
+        <v>13.058775055793454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <v>65</v>
+      </c>
+      <c r="C5" s="7">
+        <f>$C$2*SIN(RADIANS(B5))</f>
+        <v>3.8106122864040959</v>
+      </c>
+      <c r="D5" s="7">
+        <f>C5*9.8</f>
+        <v>37.344000406760145</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9">
+        <f>D5/$E$2</f>
+        <v>12.252772625093558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <v>55</v>
+      </c>
+      <c r="C6" s="7">
+        <f>$C$2*SIN(RADIANS(B6))</f>
+        <v>3.444162004396897</v>
+      </c>
+      <c r="D6" s="7">
+        <f>C6*9.8</f>
+        <v>33.75278764308959</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9">
+        <f>D6/$E$2</f>
+        <v>11.074475898382305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
         <v>45</v>
       </c>
-      <c r="C3" s="1">
-        <f>C2*SIN(RADIANS(B3))</f>
+      <c r="C7" s="7">
+        <f>$C$2*SIN(RADIANS(B7))</f>
         <v>2.9730626027161651</v>
       </c>
-      <c r="D3" s="1">
-        <f>C3*9.8</f>
+      <c r="D7" s="7">
+        <f>C7*9.8</f>
         <v>29.136013506618418</v>
       </c>
-      <c r="F3" s="4">
-        <f>D3/$E$2</f>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9">
+        <f>D7/$E$2</f>
         <v>9.5596868254539071</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <v>35</v>
+      </c>
+      <c r="C8" s="7">
+        <f>$C$2*SIN(RADIANS(B8))</f>
+        <v>2.4116281982941707</v>
+      </c>
+      <c r="D8" s="7">
+        <f>C8*9.8</f>
+        <v>23.633956343282875</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9">
+        <f>D8/$E$2</f>
+        <v>7.7544315057690385</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="3"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <v>25</v>
+      </c>
+      <c r="C9" s="7">
+        <f>$C$2*SIN(RADIANS(B9))</f>
+        <v>1.7769176914097589</v>
+      </c>
+      <c r="D9" s="7">
+        <f>C9*9.8</f>
+        <v>17.413793375815636</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9">
+        <f>D9/$E$2</f>
+        <v>5.7135617087130504</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D11" s="3"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
+        <v>15</v>
+      </c>
+      <c r="C10" s="7">
+        <f>$C$2*SIN(RADIANS(B10))</f>
+        <v>1.0882164396355984</v>
+      </c>
+      <c r="D10" s="7">
+        <f>C10*9.8</f>
+        <v>10.664521108428865</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9">
+        <f>D10/$E$2</f>
+        <v>3.4990882303395447</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="10">
+        <v>0</v>
+      </c>
+      <c r="C11" s="11">
+        <f>$C$2*SIN(RADIANS(B11))</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="11">
+        <f>C11*9.8</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13">
+        <f>D11/$E$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2">
+        <v>90</v>
+      </c>
+      <c r="C12" s="3">
+        <f>(19.19/2.2)*SIN(RADIANS(B12))</f>
+        <v>8.7227272727272727</v>
+      </c>
+      <c r="D12" s="3">
+        <f>C12*9.8</f>
+        <v>85.482727272727274</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5">
+        <f>D12/$E$2</f>
+        <v>28.047354574685766</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <v>85</v>
+      </c>
+      <c r="C13" s="7">
+        <f>$C$12*SIN(RADIANS(B13))</f>
+        <v>8.6895346619911802</v>
+      </c>
+      <c r="D13" s="7">
+        <f>C13*9.8</f>
+        <v>85.157439687513573</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9">
+        <f>D13/$E$2</f>
+        <v>27.940625922801225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
+        <v>75</v>
+      </c>
+      <c r="C14" s="7">
+        <f>$C$12*SIN(RADIANS(B14))</f>
+        <v>8.4255075484032815</v>
+      </c>
+      <c r="D14" s="7">
+        <f>C14*9.8</f>
+        <v>82.569973974352166</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9">
+        <f>D14/$E$2</f>
+        <v>27.091664142775826</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
+        <v>65</v>
+      </c>
+      <c r="C15" s="7">
+        <f t="shared" ref="C15:C21" si="0">$C$12*SIN(RADIANS(B15))</f>
+        <v>7.9054756514696871</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" ref="D15:D21" si="1">C15*9.8</f>
+        <v>77.473661384402945</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9">
+        <f t="shared" ref="F15:F21" si="2">D15/$E$2</f>
+        <v>25.419535856815717</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <v>55</v>
+      </c>
+      <c r="C16" s="7">
+        <f t="shared" si="0"/>
+        <v>7.1452398772298871</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="1"/>
+        <v>70.023350796852895</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9">
+        <f t="shared" si="2"/>
+        <v>22.975047836752047</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <f t="shared" si="0"/>
+        <v>6.1678996049862933</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="1"/>
+        <v>60.445416128865681</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9">
+        <f t="shared" si="2"/>
+        <v>19.832474614103837</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
+        <v>35</v>
+      </c>
+      <c r="C18" s="7">
+        <f t="shared" si="0"/>
+        <v>5.0031508243529883</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="1"/>
+        <v>49.030878078659292</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9">
+        <f t="shared" si="2"/>
+        <v>16.087301686022471</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="6">
+        <v>25</v>
+      </c>
+      <c r="C19" s="7">
+        <f t="shared" si="0"/>
+        <v>3.6863838376381919</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="1"/>
+        <v>36.126561608854281</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9">
+        <f t="shared" si="2"/>
+        <v>11.853324236778752</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="6">
+        <v>15</v>
+      </c>
+      <c r="C20" s="7">
+        <f t="shared" si="0"/>
+        <v>2.2576079434169878</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" si="1"/>
+        <v>22.124557845486482</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9">
+        <f t="shared" si="2"/>
+        <v>7.2591895286719872</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="10">
+        <v>0</v>
+      </c>
+      <c r="C21" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/force_calculations.xlsx
+++ b/force_calculations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MaxYoung\OneDrive - Tiger Optics\Documents\commapogo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bdaha\Documents\GitHub\commapogo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AC5C33-4760-493E-A739-63A351417ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C389F41-EEB5-4ABB-A745-7DAB84E33421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6BFD6DE9-8C03-4167-ADB1-1BE53FC596A2}"/>
+    <workbookView xWindow="-28920" yWindow="5160" windowWidth="29040" windowHeight="16440" xr2:uid="{6BFD6DE9-8C03-4167-ADB1-1BE53FC596A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,12 +87,60 @@
         </r>
       </text>
     </comment>
+    <comment ref="F22" authorId="0" shapeId="0" xr:uid="{ADC1AD87-6389-4E6D-98C7-14C255B92D4A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Max Young:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Note: There will be two magnets holding the unit up. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{637BC005-84ED-4B36-AD16-D2D1D76DC17F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Max Young:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Note: There will be two magnets holding the unit up. </t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>D73-N52</t>
   </si>
@@ -109,23 +157,39 @@
     <t>Normal Force (N)</t>
   </si>
   <si>
-    <t>Unit Force (N)</t>
-  </si>
-  <si>
     <t>Safety Factor</t>
   </si>
   <si>
     <t>DC3-N52</t>
+  </si>
+  <si>
+    <t>Pulling Force (lb.)</t>
+  </si>
+  <si>
+    <t>C3X Force (N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price </t>
+  </si>
+  <si>
+    <t>Per set</t>
+  </si>
+  <si>
+    <t>DX03-N52</t>
+  </si>
+  <si>
+    <t>D83-N52</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,66 +210,33 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -231,7 +262,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -239,10 +272,27 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -253,38 +303,109 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1078,6 +1199,784 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Safety</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Factor Drop (DX03)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.278740157480315E-2"/>
+                  <c:y val="-0.55578885972586756"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$22:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>40.631394329143525</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.476779606767799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.246913140654925</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.824549078659558</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.283289727030066</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.730734459202012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.305210363284242</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.17156924348355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.516178681452903</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-79FB-4F81-BAD4-EA2739F2E906}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="259307983"/>
+        <c:axId val="320938175"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="259307983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="320938175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="320938175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="259307983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Safety</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Factor Drop (D83)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.278740157480315E-2"/>
+                  <c:y val="-0.55578885972586756"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$32:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>16.544869921075708</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.481911695993219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.981117149360207</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.994744444979361</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.552764018344616</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.698989715041971</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4897475292222175</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9921641667710004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.282127434318233</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-794A-403D-9006-2EDFEB53D725}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="259307983"/>
+        <c:axId val="320938175"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="259307983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="320938175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="320938175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="259307983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1158,6 +2057,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1675,6 +2654,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2230,16 +4241,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>35902</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>33704</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>339237</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>87922</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2261,6 +4272,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>315058</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>153867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>10258</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>39567</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0AADE37-12C8-4A8A-8D56-AF4284CDC902}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>117231</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>168520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>420566</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>54220</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0D0C1C3-7AAF-40B3-AF75-1FCD02A187FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2566,409 +4653,834 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629D247D-C69E-4F80-AEFB-C1F8182EA819}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>90</v>
       </c>
-      <c r="C2" s="3">
-        <f>(9.25/2.2)*SIN(RADIANS(B2))</f>
+      <c r="C2" s="2">
+        <f>(A4/2.2)*SIN(RADIANS(B2))</f>
         <v>4.2045454545454541</v>
       </c>
-      <c r="D2" s="3">
-        <f>C2*9.8</f>
+      <c r="D2" s="2">
+        <f t="shared" ref="D2:D14" si="0">C2*9.8</f>
         <v>41.204545454545453</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <f>0.311*9.8</f>
         <v>3.0478000000000001</v>
       </c>
-      <c r="F2" s="5">
-        <f>D2/$E$2</f>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2:F14" si="1">D2/$E$2</f>
         <v>13.519438760596316</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="6">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5">
         <v>85</v>
       </c>
-      <c r="C3" s="7">
-        <f>(9.25/2.2)*SIN(RADIANS(B3))</f>
+      <c r="C3" s="2">
+        <f>(A4/2.2)*SIN(RADIANS(B3))</f>
         <v>4.1885458897039296</v>
       </c>
-      <c r="D3" s="7">
-        <f>C3*9.8</f>
+      <c r="D3" s="2">
+        <f t="shared" si="0"/>
         <v>41.047749719098512</v>
       </c>
-      <c r="E3" s="8">
+      <c r="F3" s="3">
+        <f t="shared" si="1"/>
+        <v>13.467993214482089</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>9.25</v>
+      </c>
+      <c r="B4" s="5">
+        <v>75</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:C11" si="2">$C$2*SIN(RADIANS(B4))</f>
+        <v>4.0612790423517637</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>39.80053461504729</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="1"/>
+        <v>13.058775055793454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>65</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="2"/>
+        <v>3.8106122864040959</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>37.344000406760145</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
+        <v>12.252772625093558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>1.35</v>
+      </c>
+      <c r="B6" s="5">
+        <v>55</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="2"/>
+        <v>3.444162004396897</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>33.75278764308959</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="1"/>
+        <v>11.074475898382305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="17">
+        <v>45</v>
+      </c>
+      <c r="C7" s="18">
+        <f t="shared" si="2"/>
+        <v>2.9730626027161651</v>
+      </c>
+      <c r="D7" s="18">
+        <f t="shared" si="0"/>
+        <v>29.136013506618418</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20">
+        <f t="shared" si="1"/>
+        <v>9.5596868254539071</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
+        <f>A6*4</f>
+        <v>5.4</v>
+      </c>
+      <c r="B8" s="5">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="2"/>
+        <v>2.4116281982941707</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>23.633956343282875</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7544315057690385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7769176914097589</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>17.413793375815636</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="1"/>
+        <v>5.7135617087130504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0882164396355984</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>10.664521108428865</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="1"/>
+        <v>3.4990882303395447</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9">
+        <v>0</v>
+      </c>
+      <c r="C11" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1">
+        <v>90</v>
+      </c>
+      <c r="C12" s="2">
+        <f>(A14/2.2)*SIN(RADIANS(B12))</f>
+        <v>8.7227272727272727</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>85.482727272727274</v>
+      </c>
+      <c r="E12" s="2">
         <f>0.311*9.8</f>
         <v>3.0478000000000001</v>
       </c>
-      <c r="F3" s="9">
-        <f>D3/$E$2</f>
-        <v>13.467993214482089</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="6">
-        <v>75</v>
-      </c>
-      <c r="C4" s="7">
-        <f>$C$2*SIN(RADIANS(B4))</f>
-        <v>4.0612790423517637</v>
-      </c>
-      <c r="D4" s="7">
-        <f>C4*9.8</f>
-        <v>39.80053461504729</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9">
-        <f>D4/$E$2</f>
-        <v>13.058775055793454</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
-        <v>65</v>
-      </c>
-      <c r="C5" s="7">
-        <f>$C$2*SIN(RADIANS(B5))</f>
-        <v>3.8106122864040959</v>
-      </c>
-      <c r="D5" s="7">
-        <f>C5*9.8</f>
-        <v>37.344000406760145</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9">
-        <f>D5/$E$2</f>
-        <v>12.252772625093558</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="6">
-        <v>55</v>
-      </c>
-      <c r="C6" s="7">
-        <f>$C$2*SIN(RADIANS(B6))</f>
-        <v>3.444162004396897</v>
-      </c>
-      <c r="D6" s="7">
-        <f>C6*9.8</f>
-        <v>33.75278764308959</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9">
-        <f>D6/$E$2</f>
-        <v>11.074475898382305</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
-        <v>45</v>
-      </c>
-      <c r="C7" s="7">
-        <f>$C$2*SIN(RADIANS(B7))</f>
-        <v>2.9730626027161651</v>
-      </c>
-      <c r="D7" s="7">
-        <f>C7*9.8</f>
-        <v>29.136013506618418</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9">
-        <f>D7/$E$2</f>
-        <v>9.5596868254539071</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
-        <v>35</v>
-      </c>
-      <c r="C8" s="7">
-        <f>$C$2*SIN(RADIANS(B8))</f>
-        <v>2.4116281982941707</v>
-      </c>
-      <c r="D8" s="7">
-        <f>C8*9.8</f>
-        <v>23.633956343282875</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9">
-        <f>D8/$E$2</f>
-        <v>7.7544315057690385</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
-        <v>25</v>
-      </c>
-      <c r="C9" s="7">
-        <f>$C$2*SIN(RADIANS(B9))</f>
-        <v>1.7769176914097589</v>
-      </c>
-      <c r="D9" s="7">
-        <f>C9*9.8</f>
-        <v>17.413793375815636</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9">
-        <f>D9/$E$2</f>
-        <v>5.7135617087130504</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
-        <v>15</v>
-      </c>
-      <c r="C10" s="7">
-        <f>$C$2*SIN(RADIANS(B10))</f>
-        <v>1.0882164396355984</v>
-      </c>
-      <c r="D10" s="7">
-        <f>C10*9.8</f>
-        <v>10.664521108428865</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9">
-        <f>D10/$E$2</f>
-        <v>3.4990882303395447</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="10">
-        <v>0</v>
-      </c>
-      <c r="C11" s="11">
-        <f>$C$2*SIN(RADIANS(B11))</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="11">
-        <f>C11*9.8</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13">
-        <f>D11/$E$2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="2">
-        <v>90</v>
-      </c>
-      <c r="C12" s="3">
-        <f>(19.19/2.2)*SIN(RADIANS(B12))</f>
-        <v>8.7227272727272727</v>
-      </c>
-      <c r="D12" s="3">
-        <f>C12*9.8</f>
-        <v>85.482727272727274</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5">
-        <f>D12/$E$2</f>
+      <c r="F12" s="3">
+        <f t="shared" si="1"/>
         <v>28.047354574685766</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="6">
+      <c r="A13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1">
         <v>85</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="2">
         <f>$C$12*SIN(RADIANS(B13))</f>
         <v>8.6895346619911802</v>
       </c>
-      <c r="D13" s="7">
-        <f>C13*9.8</f>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
         <v>85.157439687513573</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9">
-        <f>D13/$E$2</f>
+      <c r="F13" s="3">
+        <f t="shared" si="1"/>
         <v>27.940625922801225</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="6">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>19.190000000000001</v>
+      </c>
+      <c r="B14" s="1">
         <v>75</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="2">
         <f>$C$12*SIN(RADIANS(B14))</f>
         <v>8.4255075484032815</v>
       </c>
-      <c r="D14" s="7">
-        <f>C14*9.8</f>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
         <v>82.569973974352166</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9">
-        <f>D14/$E$2</f>
+      <c r="F14" s="3">
+        <f t="shared" si="1"/>
         <v>27.091664142775826</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="6">
+      <c r="A15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="5">
         <v>65</v>
       </c>
-      <c r="C15" s="7">
-        <f t="shared" ref="C15:C21" si="0">$C$12*SIN(RADIANS(B15))</f>
+      <c r="C15" s="2">
+        <f t="shared" ref="C15:C21" si="3">$C$12*SIN(RADIANS(B15))</f>
         <v>7.9054756514696871</v>
       </c>
-      <c r="D15" s="7">
-        <f t="shared" ref="D15:D21" si="1">C15*9.8</f>
+      <c r="D15" s="2">
+        <f t="shared" ref="D15:D24" si="4">C15*9.8</f>
         <v>77.473661384402945</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9">
-        <f t="shared" ref="F15:F21" si="2">D15/$E$2</f>
+      <c r="F15" s="3">
+        <f t="shared" ref="F15:F24" si="5">D15/$E$2</f>
         <v>25.419535856815717</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="6">
+      <c r="A16" s="14">
+        <v>3.49</v>
+      </c>
+      <c r="B16" s="5">
         <v>55</v>
       </c>
-      <c r="C16" s="7">
-        <f t="shared" si="0"/>
+      <c r="C16" s="2">
+        <f t="shared" si="3"/>
         <v>7.1452398772298871</v>
       </c>
-      <c r="D16" s="7">
-        <f t="shared" si="1"/>
+      <c r="D16" s="2">
+        <f t="shared" si="4"/>
         <v>70.023350796852895</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9">
-        <f t="shared" si="2"/>
+      <c r="F16" s="3">
+        <f t="shared" si="5"/>
         <v>22.975047836752047</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="17">
         <v>45</v>
       </c>
-      <c r="C17" s="7">
-        <f t="shared" si="0"/>
+      <c r="C17" s="18">
+        <f t="shared" si="3"/>
         <v>6.1678996049862933</v>
       </c>
-      <c r="D17" s="7">
-        <f t="shared" si="1"/>
+      <c r="D17" s="18">
+        <f t="shared" si="4"/>
         <v>60.445416128865681</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9">
-        <f t="shared" si="2"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20">
+        <f t="shared" si="5"/>
         <v>19.832474614103837</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="6">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
+        <f>A16*4</f>
+        <v>13.96</v>
+      </c>
+      <c r="B18" s="5">
         <v>35</v>
       </c>
-      <c r="C18" s="7">
-        <f t="shared" si="0"/>
+      <c r="C18" s="2">
+        <f t="shared" si="3"/>
         <v>5.0031508243529883</v>
       </c>
-      <c r="D18" s="7">
-        <f t="shared" si="1"/>
+      <c r="D18" s="2">
+        <f t="shared" si="4"/>
         <v>49.030878078659292</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9">
-        <f t="shared" si="2"/>
+      <c r="F18" s="3">
+        <f t="shared" si="5"/>
         <v>16.087301686022471</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
         <v>25</v>
       </c>
-      <c r="C19" s="7">
-        <f t="shared" si="0"/>
+      <c r="C19" s="2">
+        <f t="shared" si="3"/>
         <v>3.6863838376381919</v>
       </c>
-      <c r="D19" s="7">
-        <f t="shared" si="1"/>
+      <c r="D19" s="2">
+        <f t="shared" si="4"/>
         <v>36.126561608854281</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9">
-        <f t="shared" si="2"/>
+      <c r="F19" s="3">
+        <f t="shared" si="5"/>
         <v>11.853324236778752</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
         <v>15</v>
       </c>
-      <c r="C20" s="7">
-        <f t="shared" si="0"/>
+      <c r="C20" s="2">
+        <f t="shared" si="3"/>
         <v>2.2576079434169878</v>
       </c>
-      <c r="D20" s="7">
-        <f t="shared" si="1"/>
+      <c r="D20" s="2">
+        <f t="shared" si="4"/>
         <v>22.124557845486482</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9">
-        <f t="shared" si="2"/>
+      <c r="F20" s="3">
+        <f t="shared" si="5"/>
         <v>7.2591895286719872</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="10">
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9">
         <v>0</v>
       </c>
-      <c r="C21" s="11">
-        <f t="shared" si="0"/>
+      <c r="C21" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D21" s="11">
-        <f t="shared" si="1"/>
+      <c r="D21" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13">
-        <f t="shared" si="2"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1">
+        <v>90</v>
+      </c>
+      <c r="C22" s="2">
+        <f>(A24/2.2)*SIN(RADIANS(B22))</f>
+        <v>12.636363636363635</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="4"/>
+        <v>123.83636363636363</v>
+      </c>
+      <c r="E22" s="2">
+        <f>0.311*9.8</f>
+        <v>3.0478000000000001</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="5"/>
+        <v>40.631394329143525</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1">
+        <v>85</v>
+      </c>
+      <c r="C23" s="2">
+        <f>$C$22*SIN(RADIANS(B23))</f>
+        <v>12.588278457704783</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="4"/>
+        <v>123.36512888550689</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="5"/>
+        <v>40.476779606767799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>27.8</v>
+      </c>
+      <c r="B24" s="1">
+        <v>75</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" ref="C24:C31" si="6">$C$22*SIN(RADIANS(B24))</f>
+        <v>12.20578998674368</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="4"/>
+        <v>119.61674187008808</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="5"/>
+        <v>39.246913140654925</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="5">
+        <v>65</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="6"/>
+        <v>11.452434763463121</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:D41" si="7">C25*9.8</f>
+        <v>112.23386068193859</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" ref="F25:F41" si="8">D25/$E$2</f>
+        <v>36.824549078659558</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>5.92</v>
+      </c>
+      <c r="B26" s="5">
+        <v>55</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="6"/>
+        <v>10.35110310510635</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="7"/>
+        <v>101.44081043004225</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="8"/>
+        <v>33.283289727030066</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="17">
+        <v>45</v>
+      </c>
+      <c r="C27" s="18">
+        <f t="shared" si="6"/>
+        <v>8.9352584168118252</v>
+      </c>
+      <c r="D27" s="18">
+        <f t="shared" si="7"/>
+        <v>87.565532484755892</v>
+      </c>
+      <c r="E27" s="19"/>
+      <c r="F27" s="20">
+        <f t="shared" si="8"/>
+        <v>28.730734459202012</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16">
+        <f>A26*4</f>
+        <v>23.68</v>
+      </c>
+      <c r="B28" s="5">
+        <v>35</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="6"/>
+        <v>7.2479204229813989</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="7"/>
+        <v>71.02962014521772</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="8"/>
+        <v>23.305210363284242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>25</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="6"/>
+        <v>5.3403580347233834</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="7"/>
+        <v>52.335508740289164</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="8"/>
+        <v>17.17156924348355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>15</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="6"/>
+        <v>3.2705315699318525</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="7"/>
+        <v>32.051209385332157</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="8"/>
+        <v>10.516178681452903</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="21"/>
+      <c r="B31" s="9">
+        <v>0</v>
+      </c>
+      <c r="C31" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="1">
+        <v>90</v>
+      </c>
+      <c r="C32" s="2">
+        <f>(A34/2.2)*SIN(RADIANS(B32))</f>
+        <v>5.1454545454545455</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="7"/>
+        <v>50.425454545454549</v>
+      </c>
+      <c r="E32" s="2">
+        <f>0.311*9.8</f>
+        <v>3.0478000000000001</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="8"/>
+        <v>16.544869921075708</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="1">
+        <v>85</v>
+      </c>
+      <c r="C33" s="2">
+        <f>$C$32*SIN(RADIANS(B33))</f>
+        <v>5.1258745374538908</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="7"/>
+        <v>50.233570467048132</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="8"/>
+        <v>16.481911695993219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>11.32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>75</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" ref="C34:C41" si="9">$C$32*SIN(RADIANS(B34))</f>
+        <v>4.9701274334510241</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="7"/>
+        <v>48.70724884782004</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="8"/>
+        <v>15.981117149360207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="5">
+        <v>65</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="9"/>
+        <v>4.663365522388581</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="7"/>
+        <v>45.700982119408096</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="8"/>
+        <v>14.994744444979361</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
+        <v>1.71</v>
+      </c>
+      <c r="B36" s="5">
+        <v>55</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="9"/>
+        <v>4.2149096097051757</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="7"/>
+        <v>41.306114175110721</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="8"/>
+        <v>13.552764018344616</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="17">
+        <v>45</v>
+      </c>
+      <c r="C37" s="18">
+        <f t="shared" si="9"/>
+        <v>3.6383858013780532</v>
+      </c>
+      <c r="D37" s="18">
+        <f t="shared" si="7"/>
+        <v>35.656180853504921</v>
+      </c>
+      <c r="E37" s="19"/>
+      <c r="F37" s="20">
+        <f t="shared" si="8"/>
+        <v>11.698989715041971</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="16">
+        <f>A36*4</f>
+        <v>6.84</v>
+      </c>
+      <c r="B38" s="5">
+        <v>35</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="9"/>
+        <v>2.9513114815881099</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="7"/>
+        <v>28.922852519563477</v>
+      </c>
+      <c r="F38" s="3">
+        <f t="shared" si="8"/>
+        <v>9.4897475292222175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>25</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="9"/>
+        <v>2.1745630558657809</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="7"/>
+        <v>21.310717947484655</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="8"/>
+        <v>6.9921641667710004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <v>15</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="9"/>
+        <v>1.3317416320729705</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="7"/>
+        <v>13.051067994315112</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" si="8"/>
+        <v>4.282127434318233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9">
+        <v>0</v>
+      </c>
+      <c r="C41" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D41" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="11">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>

--- a/force_calculations.xlsx
+++ b/force_calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bdaha\Documents\GitHub\commapogo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C389F41-EEB5-4ABB-A745-7DAB84E33421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF03FAA-3420-40AC-B211-40AE2794E7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5160" windowWidth="29040" windowHeight="16440" xr2:uid="{6BFD6DE9-8C03-4167-ADB1-1BE53FC596A2}"/>
   </bookViews>
@@ -4655,7 +4655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629D247D-C69E-4F80-AEFB-C1F8182EA819}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>

--- a/force_calculations.xlsx
+++ b/force_calculations.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bdaha\Documents\GitHub\commapogo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MaxYoung\OneDrive - Tiger Optics\Documents\commapogo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF03FAA-3420-40AC-B211-40AE2794E7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E9C9DD-9151-4909-B1D9-6504AD0B746F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5160" windowWidth="29040" windowHeight="16440" xr2:uid="{6BFD6DE9-8C03-4167-ADB1-1BE53FC596A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6BFD6DE9-8C03-4167-ADB1-1BE53FC596A2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Safety Calculations" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -151,9 +151,6 @@
     <t>Part No.</t>
   </si>
   <si>
-    <t>Pulling Force (kg)</t>
-  </si>
-  <si>
     <t>Normal Force (N)</t>
   </si>
   <si>
@@ -179,6 +176,9 @@
   </si>
   <si>
     <t>D83-N52</t>
+  </si>
+  <si>
+    <t>Holding Strength (kg)</t>
   </si>
 </sst>
 </file>
@@ -580,7 +580,7 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$11</c:f>
+              <c:f>'Safety Calculations'!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -969,7 +969,7 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$12:$F$21</c:f>
+              <c:f>'Safety Calculations'!$F$12:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1358,7 +1358,7 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$22:$F$31</c:f>
+              <c:f>'Safety Calculations'!$F$22:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1747,7 +1747,7 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$32:$F$41</c:f>
+              <c:f>'Safety Calculations'!$F$32:$F$41</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4656,14 +4656,15 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4676,16 +4677,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4714,7 +4715,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="5">
         <v>85</v>
@@ -4754,7 +4755,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="5">
         <v>65</v>
@@ -4794,7 +4795,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="17">
         <v>45</v>
@@ -4889,7 +4890,7 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1">
         <v>90</v>
@@ -4913,7 +4914,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1">
         <v>85</v>
@@ -4953,7 +4954,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="5">
         <v>65</v>
@@ -4993,7 +4994,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="17">
         <v>45</v>
@@ -5088,7 +5089,7 @@
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" s="1">
         <v>90</v>
@@ -5112,7 +5113,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" s="1">
         <v>85</v>
@@ -5152,7 +5153,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" s="5">
         <v>65</v>
@@ -5192,7 +5193,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27" s="17">
         <v>45</v>
@@ -5287,7 +5288,7 @@
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32" s="1">
         <v>90</v>
@@ -5311,7 +5312,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33" s="1">
         <v>85</v>
@@ -5351,7 +5352,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B35" s="5">
         <v>65</v>
@@ -5391,7 +5392,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B37" s="17">
         <v>45</v>

--- a/force_calculations.xlsx
+++ b/force_calculations.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MaxYoung\OneDrive - Tiger Optics\Documents\commapogo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E9C9DD-9151-4909-B1D9-6504AD0B746F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA967689-0795-4A52-976A-C75ED4829B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6BFD6DE9-8C03-4167-ADB1-1BE53FC596A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Safety Calculations" sheetId="1" r:id="rId1"/>
+    <sheet name="Safety Factor Drop" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -370,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -403,6 +404,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -460,9 +462,8 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Factor Drop (D73)</a:t>
+              <a:t> Factor Drop</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -504,6 +505,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Safety Calculations'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D73-N52</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -528,56 +540,69 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-5.4593175853018369E-4"/>
-                  <c:y val="-0.50192330125400997"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-A5B2-4248-A15F-1C65C239F9A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Safety Calculations'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>'Safety Calculations'!$F$2:$F$11</c:f>
@@ -585,34 +610,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>8.2816597543881427E-16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1782967267112507</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4990882303395447</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7135617087130504</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7544315057690394</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5596868254539089</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.074475898382305</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.252772625093558</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.058775055793454</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>13.519438760596316</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.467993214482089</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.058775055793454</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.252772625093558</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.074475898382305</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.5596868254539071</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.7544315057690385</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.7135617087130504</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.4990882303395447</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -620,7 +645,446 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1CAC-40F5-B836-7B6A3C9666C5}"/>
+              <c16:uniqueId val="{00000000-A5B2-4248-A15F-1C65C239F9A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Safety Calculations'!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DC3-N52</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A5B2-4248-A15F-1C65C239F9A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Safety Calculations'!$B$12:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Safety Calculations'!$F$12:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.7181086560725241E-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4444880200636652</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2591895286719872</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.853324236778752</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.087301686022474</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.832474614103841</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.975047836752047</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.419535856815717</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.091664142775826</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.047354574685766</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A5B2-4248-A15F-1C65C239F9A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Safety Calculations'!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DX03-N52</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-A5B2-4248-A15F-1C65C239F9A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Safety Calculations'!$B$22:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Safety Calculations'!$F$22:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.4889744991566527E-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5412593516294883</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.516178681452903</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.17156924348355</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.30521036328425</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.730734459202015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.283289727030066</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.824549078659558</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.246913140654925</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40.631394329143525</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A5B2-4248-A15F-1C65C239F9A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Safety Calculations'!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D83-N52</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-A5B2-4248-A15F-1C65C239F9A9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Safety Calculations'!$B$32:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Safety Calculations'!$F$32:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0134960910235002E-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4419804266347416</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.282127434318233</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9921641667710004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.4897475292222211</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.698989715041977</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.552764018344616</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.994744444979361</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.981117149360207</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.544869921075708</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A5B2-4248-A15F-1C65C239F9A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -656,6 +1120,807 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="320938175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="320938175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="259307983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.77090151457098888"/>
+          <c:y val="0.14977577016463661"/>
+          <c:w val="0.17386313977835446"/>
+          <c:h val="0.22070786275664286"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Safety</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Factor Drop</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Safety Calculations'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D73-N52</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Safety Calculations'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Safety Calculations'!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.2816597543881427E-16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1782967267112507</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4990882303395447</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7135617087130504</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7544315057690394</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5596868254539089</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.074475898382305</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.252772625093558</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.058775055793454</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.519438760596316</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-37D7-4282-B661-4B92D812A1C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Safety Calculations'!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DC3-N52</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Safety Calculations'!$B$12:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Safety Calculations'!$F$12:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.7181086560725241E-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4444880200636652</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2591895286719872</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.853324236778752</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.087301686022474</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.832474614103841</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.975047836752047</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.419535856815717</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.091664142775826</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.047354574685766</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-37D7-4282-B661-4B92D812A1C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Safety Calculations'!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DX03-N52</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Safety Calculations'!$B$22:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Safety Calculations'!$F$22:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.4889744991566527E-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5412593516294883</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.516178681452903</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.17156924348355</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.30521036328425</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.730734459202015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.283289727030066</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.824549078659558</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.246913140654925</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40.631394329143525</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-37D7-4282-B661-4B92D812A1C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Safety Calculations'!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D83-N52</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Safety Calculations'!$B$32:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Safety Calculations'!$F$32:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0134960910235002E-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4419804266347416</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.282127434318233</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9921641667710004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.4897475292222211</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.698989715041977</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.552764018344616</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.994744444979361</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.981117149360207</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.544869921075708</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-37D7-4282-B661-4B92D812A1C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="259307983"/>
+        <c:axId val="320938175"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="259307983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -766,6 +2031,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.82613676548934434"/>
+          <c:y val="8.7063000585073894E-2"/>
+          <c:w val="0.13125194037502275"/>
+          <c:h val="0.22808588261368498"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -802,1178 +2108,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Safety</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Factor Drop (DC3)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.278740157480315E-2"/>
-                  <c:y val="-0.55578885972586756"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Safety Calculations'!$F$12:$F$21</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>28.047354574685766</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27.940625922801225</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27.091664142775826</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25.419535856815717</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22.975047836752047</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19.832474614103837</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16.087301686022471</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.853324236778752</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.2591895286719872</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9107-457E-A9A9-2BA66D327B2A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="259307983"/>
-        <c:axId val="320938175"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="259307983"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="320938175"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="320938175"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="259307983"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Safety</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Factor Drop (DX03)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.278740157480315E-2"/>
-                  <c:y val="-0.55578885972586756"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Safety Calculations'!$F$22:$F$31</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>40.631394329143525</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40.476779606767799</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>39.246913140654925</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>36.824549078659558</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>33.283289727030066</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28.730734459202012</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23.305210363284242</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17.17156924348355</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.516178681452903</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-79FB-4F81-BAD4-EA2739F2E906}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="259307983"/>
-        <c:axId val="320938175"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="259307983"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="320938175"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="320938175"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="259307983"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Safety</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Factor Drop (D83)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.278740157480315E-2"/>
-                  <c:y val="-0.55578885972586756"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Safety Calculations'!$F$32:$F$41</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>16.544869921075708</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.481911695993219</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.981117149360207</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14.994744444979361</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.552764018344616</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.698989715041971</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.4897475292222175</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.9921641667710004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.282127434318233</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-794A-403D-9006-2EDFEB53D725}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="259307983"/>
-        <c:axId val="320938175"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="259307983"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="320938175"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="320938175"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="259307983"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2057,86 +2191,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3169,1063 +3223,34 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{55C8F695-C5A0-436B-B11B-734FEA7C2ECB}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="6667499" y="1194954"/>
+    <xdr:ext cx="4828430" cy="3442673"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6D5AA3B-550C-4199-910F-653A0291A9B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DF9C295-B12E-434E-8F2F-5EF45486E5F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4238,31 +3263,26 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>35902</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>33704</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>339237</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>87922</xdr:rowOff>
-    </xdr:to>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8664408" cy="6291513"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C406E3A-A82B-4114-BCE2-C02773B08BCE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCD0F1A6-EB7A-1477-62E1-28F5AABD8DBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
+          <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4271,88 +3291,12 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>315058</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>153867</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>10258</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>39567</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0AADE37-12C8-4A8A-8D56-AF4284CDC902}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>117231</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>168520</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>420566</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>54220</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0D0C1C3-7AAF-40B3-AF75-1FCD02A187FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4653,10 +3597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629D247D-C69E-4F80-AEFB-C1F8182EA819}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4669,7 +3613,7 @@
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
@@ -4689,7 +3633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -4697,12 +3641,12 @@
         <v>90</v>
       </c>
       <c r="C2" s="2">
-        <f>(A4/2.2)*SIN(RADIANS(B2))</f>
-        <v>4.2045454545454541</v>
+        <f>($A$4/2.2)*COS(RADIANS(B2))</f>
+        <v>2.5755961836147122E-16</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:D14" si="0">C2*9.8</f>
-        <v>41.204545454545453</v>
+        <v>2.5240842599424181E-15</v>
       </c>
       <c r="E2" s="2">
         <f>0.311*9.8</f>
@@ -4710,10 +3654,10 @@
       </c>
       <c r="F2" s="3">
         <f t="shared" ref="F2:F14" si="1">D2/$E$2</f>
-        <v>13.519438760596316</v>
+        <v>8.2816597543881427E-16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -4721,19 +3665,19 @@
         <v>85</v>
       </c>
       <c r="C3" s="2">
-        <f>(A4/2.2)*SIN(RADIANS(B3))</f>
-        <v>4.1885458897039296</v>
+        <f t="shared" ref="C3:C11" si="2">($A$4/2.2)*COS(RADIANS(B3))</f>
+        <v>0.36645028200719898</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="0"/>
-        <v>41.047749719098512</v>
+        <v>3.5912127636705504</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="1"/>
-        <v>13.467993214482089</v>
+        <v>1.1782967267112507</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>9.25</v>
       </c>
@@ -4741,19 +3685,19 @@
         <v>75</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C4:C11" si="2">$C$2*SIN(RADIANS(B4))</f>
-        <v>4.0612790423517637</v>
+        <f t="shared" si="2"/>
+        <v>1.0882164396355984</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>39.80053461504729</v>
+        <v>10.664521108428865</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" si="1"/>
-        <v>13.058775055793454</v>
+        <v>3.4990882303395447</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -4762,18 +3706,18 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" si="2"/>
-        <v>3.8106122864040959</v>
+        <v>1.7769176914097589</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>37.344000406760145</v>
+        <v>17.413793375815636</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" si="1"/>
-        <v>12.252772625093558</v>
+        <v>5.7135617087130504</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>1.35</v>
       </c>
@@ -4782,18 +3726,22 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" si="2"/>
-        <v>3.444162004396897</v>
+        <v>2.4116281982941712</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>33.75278764308959</v>
+        <v>23.633956343282879</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="1"/>
-        <v>11.074475898382305</v>
-      </c>
+        <v>7.7544315057690394</v>
+      </c>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
@@ -4802,19 +3750,23 @@
       </c>
       <c r="C7" s="18">
         <f t="shared" si="2"/>
-        <v>2.9730626027161651</v>
+        <v>2.9730626027161655</v>
       </c>
       <c r="D7" s="18">
         <f t="shared" si="0"/>
-        <v>29.136013506618418</v>
+        <v>29.136013506618426</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="20">
         <f t="shared" si="1"/>
-        <v>9.5596868254539071</v>
-      </c>
+        <v>9.5596868254539089</v>
+      </c>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <f>A6*4</f>
         <v>5.4</v>
@@ -4824,71 +3776,87 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" si="2"/>
-        <v>2.4116281982941707</v>
+        <v>3.444162004396897</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>23.633956343282875</v>
+        <v>33.75278764308959</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="1"/>
-        <v>7.7544315057690385</v>
-      </c>
+        <v>11.074475898382305</v>
+      </c>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>25</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="2"/>
-        <v>1.7769176914097589</v>
+        <v>3.8106122864040959</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>17.413793375815636</v>
+        <v>37.344000406760145</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="1"/>
-        <v>5.7135617087130504</v>
-      </c>
+        <v>12.252772625093558</v>
+      </c>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>15</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="2"/>
-        <v>1.0882164396355984</v>
+        <v>4.0612790423517637</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>10.664521108428865</v>
+        <v>39.80053461504729</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="1"/>
-        <v>3.4990882303395447</v>
-      </c>
+        <v>13.058775055793454</v>
+      </c>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="9">
         <v>0</v>
       </c>
       <c r="C11" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.2045454545454541</v>
       </c>
       <c r="D11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41.204545454545453</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>13.519438760596316</v>
+      </c>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -4896,12 +3864,12 @@
         <v>90</v>
       </c>
       <c r="C12" s="2">
-        <f>(A14/2.2)*SIN(RADIANS(B12))</f>
-        <v>8.7227272727272727</v>
+        <f>($A$14/2.2)*COS(RADIANS(B12))</f>
+        <v>5.3433179203855495E-16</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>85.482727272727274</v>
+        <v>5.236451561977839E-15</v>
       </c>
       <c r="E12" s="2">
         <f>0.311*9.8</f>
@@ -4909,10 +3877,14 @@
       </c>
       <c r="F12" s="3">
         <f t="shared" si="1"/>
-        <v>28.047354574685766</v>
-      </c>
+        <v>1.7181086560725241E-15</v>
+      </c>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -4920,19 +3892,23 @@
         <v>85</v>
       </c>
       <c r="C13" s="2">
-        <f>$C$12*SIN(RADIANS(B13))</f>
-        <v>8.6895346619911802</v>
+        <f t="shared" ref="C13:C21" si="3">($A$14/2.2)*COS(RADIANS(B13))</f>
+        <v>0.76023577423979982</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>85.157439687513573</v>
+        <v>7.4503105875500388</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="1"/>
-        <v>27.940625922801225</v>
-      </c>
+        <v>2.4444880200636652</v>
+      </c>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>19.190000000000001</v>
       </c>
@@ -4940,19 +3916,23 @@
         <v>75</v>
       </c>
       <c r="C14" s="2">
-        <f>$C$12*SIN(RADIANS(B14))</f>
-        <v>8.4255075484032815</v>
+        <f t="shared" si="3"/>
+        <v>2.2576079434169878</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>82.569973974352166</v>
+        <v>22.124557845486482</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="1"/>
-        <v>27.091664142775826</v>
-      </c>
+        <v>7.2591895286719872</v>
+      </c>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
@@ -4960,19 +3940,19 @@
         <v>65</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" ref="C15:C21" si="3">$C$12*SIN(RADIANS(B15))</f>
-        <v>7.9054756514696871</v>
+        <f t="shared" si="3"/>
+        <v>3.6863838376381919</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ref="D15:D24" si="4">C15*9.8</f>
-        <v>77.473661384402945</v>
+        <v>36.126561608854281</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" ref="F15:F24" si="5">D15/$E$2</f>
-        <v>25.419535856815717</v>
+        <v>11.853324236778752</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>3.49</v>
       </c>
@@ -4981,15 +3961,15 @@
       </c>
       <c r="C16" s="2">
         <f t="shared" si="3"/>
-        <v>7.1452398772298871</v>
+        <v>5.0031508243529892</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="4"/>
-        <v>70.023350796852895</v>
+        <v>49.030878078659299</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="5"/>
-        <v>22.975047836752047</v>
+        <v>16.087301686022474</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -5001,16 +3981,16 @@
       </c>
       <c r="C17" s="18">
         <f t="shared" si="3"/>
-        <v>6.1678996049862933</v>
+        <v>6.1678996049862942</v>
       </c>
       <c r="D17" s="18">
         <f t="shared" si="4"/>
-        <v>60.445416128865681</v>
+        <v>60.445416128865688</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="20">
         <f t="shared" si="5"/>
-        <v>19.832474614103837</v>
+        <v>19.832474614103841</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5023,15 +4003,15 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" si="3"/>
-        <v>5.0031508243529883</v>
+        <v>7.1452398772298871</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="4"/>
-        <v>49.030878078659292</v>
+        <v>70.023350796852895</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="5"/>
-        <v>16.087301686022471</v>
+        <v>22.975047836752047</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5040,15 +4020,15 @@
       </c>
       <c r="C19" s="2">
         <f t="shared" si="3"/>
-        <v>3.6863838376381919</v>
+        <v>7.9054756514696871</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="4"/>
-        <v>36.126561608854281</v>
+        <v>77.473661384402945</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="5"/>
-        <v>11.853324236778752</v>
+        <v>25.419535856815717</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5057,15 +4037,15 @@
       </c>
       <c r="C20" s="2">
         <f t="shared" si="3"/>
-        <v>2.2576079434169878</v>
+        <v>8.4255075484032815</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="4"/>
-        <v>22.124557845486482</v>
+        <v>82.569973974352166</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="5"/>
-        <v>7.2591895286719872</v>
+        <v>27.091664142775826</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5075,16 +4055,16 @@
       </c>
       <c r="C21" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.7227272727272727</v>
       </c>
       <c r="D21" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>85.482727272727274</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>28.047354574685766</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5095,12 +4075,12 @@
         <v>90</v>
       </c>
       <c r="C22" s="2">
-        <f>(A24/2.2)*SIN(RADIANS(B22))</f>
-        <v>12.636363636363635</v>
+        <f>($A$24/2.2)*COS(RADIANS(B22))</f>
+        <v>7.7407106923771895E-16</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="4"/>
-        <v>123.83636363636363</v>
+        <v>7.5858964785296464E-15</v>
       </c>
       <c r="E22" s="2">
         <f>0.311*9.8</f>
@@ -5108,7 +4088,7 @@
       </c>
       <c r="F22" s="3">
         <f t="shared" si="5"/>
-        <v>40.631394329143525</v>
+        <v>2.4889744991566527E-15</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -5119,16 +4099,16 @@
         <v>85</v>
       </c>
       <c r="C23" s="2">
-        <f>$C$22*SIN(RADIANS(B23))</f>
-        <v>12.588278457704783</v>
+        <f t="shared" ref="C23:C31" si="6">($A$24/2.2)*COS(RADIANS(B23))</f>
+        <v>1.1013316583567709</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="4"/>
-        <v>123.36512888550689</v>
+        <v>10.793050251896355</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="5"/>
-        <v>40.476779606767799</v>
+        <v>3.5412593516294883</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5139,16 +4119,16 @@
         <v>75</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" ref="C24:C31" si="6">$C$22*SIN(RADIANS(B24))</f>
-        <v>12.20578998674368</v>
+        <f t="shared" si="6"/>
+        <v>3.2705315699318525</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="4"/>
-        <v>119.61674187008808</v>
+        <v>32.051209385332157</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="5"/>
-        <v>39.246913140654925</v>
+        <v>10.516178681452903</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -5160,15 +4140,15 @@
       </c>
       <c r="C25" s="2">
         <f t="shared" si="6"/>
-        <v>11.452434763463121</v>
+        <v>5.3403580347233834</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" ref="D25:D41" si="7">C25*9.8</f>
-        <v>112.23386068193859</v>
+        <v>52.335508740289164</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" ref="F25:F41" si="8">D25/$E$2</f>
-        <v>36.824549078659558</v>
+        <v>17.17156924348355</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5180,15 +4160,15 @@
       </c>
       <c r="C26" s="2">
         <f t="shared" si="6"/>
-        <v>10.35110310510635</v>
+        <v>7.2479204229814007</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="7"/>
-        <v>101.44081043004225</v>
+        <v>71.029620145217734</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="8"/>
-        <v>33.283289727030066</v>
+        <v>23.30521036328425</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -5200,16 +4180,16 @@
       </c>
       <c r="C27" s="18">
         <f t="shared" si="6"/>
-        <v>8.9352584168118252</v>
+        <v>8.935258416811827</v>
       </c>
       <c r="D27" s="18">
         <f t="shared" si="7"/>
-        <v>87.565532484755892</v>
+        <v>87.565532484755906</v>
       </c>
       <c r="E27" s="19"/>
       <c r="F27" s="20">
         <f t="shared" si="8"/>
-        <v>28.730734459202012</v>
+        <v>28.730734459202015</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5222,15 +4202,15 @@
       </c>
       <c r="C28" s="2">
         <f t="shared" si="6"/>
-        <v>7.2479204229813989</v>
+        <v>10.35110310510635</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="7"/>
-        <v>71.02962014521772</v>
+        <v>101.44081043004225</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" si="8"/>
-        <v>23.305210363284242</v>
+        <v>33.283289727030066</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -5239,15 +4219,15 @@
       </c>
       <c r="C29" s="2">
         <f t="shared" si="6"/>
-        <v>5.3403580347233834</v>
+        <v>11.452434763463121</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="7"/>
-        <v>52.335508740289164</v>
+        <v>112.23386068193859</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="8"/>
-        <v>17.17156924348355</v>
+        <v>36.824549078659558</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -5256,15 +4236,15 @@
       </c>
       <c r="C30" s="2">
         <f t="shared" si="6"/>
-        <v>3.2705315699318525</v>
+        <v>12.20578998674368</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="7"/>
-        <v>32.051209385332157</v>
+        <v>119.61674187008808</v>
       </c>
       <c r="F30" s="3">
         <f t="shared" si="8"/>
-        <v>10.516178681452903</v>
+        <v>39.246913140654925</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5274,16 +4254,16 @@
       </c>
       <c r="C31" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>12.636363636363635</v>
       </c>
       <c r="D31" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>123.83636363636363</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>40.631394329143525</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5294,12 +4274,12 @@
         <v>90</v>
       </c>
       <c r="C32" s="2">
-        <f>(A34/2.2)*SIN(RADIANS(B32))</f>
-        <v>5.1454545454545455</v>
+        <f>($A$34/2.2)*COS(RADIANS(B32))</f>
+        <v>3.1519728430830858E-16</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" si="7"/>
-        <v>50.425454545454549</v>
+        <v>3.0889333862214242E-15</v>
       </c>
       <c r="E32" s="2">
         <f>0.311*9.8</f>
@@ -5307,7 +4287,7 @@
       </c>
       <c r="F32" s="3">
         <f t="shared" si="8"/>
-        <v>16.544869921075708</v>
+        <v>1.0134960910235002E-15</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -5318,16 +4298,16 @@
         <v>85</v>
       </c>
       <c r="C33" s="2">
-        <f>$C$32*SIN(RADIANS(B33))</f>
-        <v>5.1258745374538908</v>
+        <f t="shared" ref="C33:C41" si="9">($A$34/2.2)*COS(RADIANS(B33))</f>
+        <v>0.44845591268340462</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" si="7"/>
-        <v>50.233570467048132</v>
+        <v>4.3948679442973653</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" si="8"/>
-        <v>16.481911695993219</v>
+        <v>1.4419804266347416</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5338,16 +4318,16 @@
         <v>75</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" ref="C34:C41" si="9">$C$32*SIN(RADIANS(B34))</f>
-        <v>4.9701274334510241</v>
+        <f t="shared" si="9"/>
+        <v>1.3317416320729705</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" si="7"/>
-        <v>48.70724884782004</v>
+        <v>13.051067994315112</v>
       </c>
       <c r="F34" s="3">
         <f t="shared" si="8"/>
-        <v>15.981117149360207</v>
+        <v>4.282127434318233</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -5359,15 +4339,15 @@
       </c>
       <c r="C35" s="2">
         <f t="shared" si="9"/>
-        <v>4.663365522388581</v>
+        <v>2.1745630558657809</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" si="7"/>
-        <v>45.700982119408096</v>
+        <v>21.310717947484655</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="8"/>
-        <v>14.994744444979361</v>
+        <v>6.9921641667710004</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -5379,15 +4359,15 @@
       </c>
       <c r="C36" s="2">
         <f t="shared" si="9"/>
-        <v>4.2149096097051757</v>
+        <v>2.9513114815881103</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="7"/>
-        <v>41.306114175110721</v>
+        <v>28.922852519563484</v>
       </c>
       <c r="F36" s="3">
         <f t="shared" si="8"/>
-        <v>13.552764018344616</v>
+        <v>9.4897475292222211</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -5399,16 +4379,16 @@
       </c>
       <c r="C37" s="18">
         <f t="shared" si="9"/>
-        <v>3.6383858013780532</v>
+        <v>3.6383858013780541</v>
       </c>
       <c r="D37" s="18">
         <f t="shared" si="7"/>
-        <v>35.656180853504921</v>
+        <v>35.656180853504935</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="20">
         <f t="shared" si="8"/>
-        <v>11.698989715041971</v>
+        <v>11.698989715041977</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5421,15 +4401,15 @@
       </c>
       <c r="C38" s="2">
         <f t="shared" si="9"/>
-        <v>2.9513114815881099</v>
+        <v>4.2149096097051757</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" si="7"/>
-        <v>28.922852519563477</v>
+        <v>41.306114175110721</v>
       </c>
       <c r="F38" s="3">
         <f t="shared" si="8"/>
-        <v>9.4897475292222175</v>
+        <v>13.552764018344616</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -5438,15 +4418,15 @@
       </c>
       <c r="C39" s="2">
         <f t="shared" si="9"/>
-        <v>2.1745630558657809</v>
+        <v>4.663365522388581</v>
       </c>
       <c r="D39" s="2">
         <f t="shared" si="7"/>
-        <v>21.310717947484655</v>
+        <v>45.700982119408096</v>
       </c>
       <c r="F39" s="3">
         <f t="shared" si="8"/>
-        <v>6.9921641667710004</v>
+        <v>14.994744444979361</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -5455,15 +4435,15 @@
       </c>
       <c r="C40" s="2">
         <f t="shared" si="9"/>
-        <v>1.3317416320729705</v>
+        <v>4.9701274334510241</v>
       </c>
       <c r="D40" s="2">
         <f t="shared" si="7"/>
-        <v>13.051067994315112</v>
+        <v>48.70724884782004</v>
       </c>
       <c r="F40" s="3">
         <f t="shared" si="8"/>
-        <v>4.282127434318233</v>
+        <v>15.981117149360207</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5473,16 +4453,16 @@
       </c>
       <c r="C41" s="10">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5.1454545454545455</v>
       </c>
       <c r="D41" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>50.425454545454549</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>16.544869921075708</v>
       </c>
     </row>
   </sheetData>

--- a/force_calculations.xlsx
+++ b/force_calculations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MaxYoung\OneDrive - Tiger Optics\Documents\commapogo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bdaha\Documents\GitHub\commapogo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA967689-0795-4A52-976A-C75ED4829B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA72389A-B214-49D5-AFF2-73F21F05A338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6BFD6DE9-8C03-4167-ADB1-1BE53FC596A2}"/>
+    <workbookView xWindow="-28920" yWindow="5160" windowWidth="29040" windowHeight="16440" xr2:uid="{6BFD6DE9-8C03-4167-ADB1-1BE53FC596A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Safety Calculations" sheetId="1" r:id="rId1"/>
@@ -371,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -404,7 +404,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -3237,7 +3236,7 @@
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="6667499" y="1194954"/>
+    <xdr:pos x="6684818" y="1376795"/>
     <xdr:ext cx="4828430" cy="3442673"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3597,10 +3596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629D247D-C69E-4F80-AEFB-C1F8182EA819}">
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3613,7 +3612,7 @@
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
@@ -3633,7 +3632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -3657,7 +3656,7 @@
         <v>8.2816597543881427E-16</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -3677,7 +3676,7 @@
         <v>1.1782967267112507</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>9.25</v>
       </c>
@@ -3697,7 +3696,7 @@
         <v>3.4990882303395447</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -3717,7 +3716,7 @@
         <v>5.7135617087130504</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>1.35</v>
       </c>
@@ -3736,12 +3735,8 @@
         <f t="shared" si="1"/>
         <v>7.7544315057690394</v>
       </c>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
@@ -3753,7 +3748,7 @@
         <v>2.9730626027161655</v>
       </c>
       <c r="D7" s="18">
-        <f t="shared" si="0"/>
+        <f>C7*9.8</f>
         <v>29.136013506618426</v>
       </c>
       <c r="E7" s="19"/>
@@ -3761,12 +3756,8 @@
         <f t="shared" si="1"/>
         <v>9.5596868254539089</v>
       </c>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
     </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <f>A6*4</f>
         <v>5.4</v>
@@ -3786,12 +3777,8 @@
         <f t="shared" si="1"/>
         <v>11.074475898382305</v>
       </c>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>25</v>
       </c>
@@ -3807,12 +3794,8 @@
         <f t="shared" si="1"/>
         <v>12.252772625093558</v>
       </c>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>15</v>
       </c>
@@ -3828,12 +3811,8 @@
         <f t="shared" si="1"/>
         <v>13.058775055793454</v>
       </c>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
     </row>
-    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="9">
         <v>0</v>
@@ -3851,12 +3830,8 @@
         <f t="shared" si="1"/>
         <v>13.519438760596316</v>
       </c>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
     </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -3879,12 +3854,8 @@
         <f t="shared" si="1"/>
         <v>1.7181086560725241E-15</v>
       </c>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -3903,12 +3874,8 @@
         <f t="shared" si="1"/>
         <v>2.4444880200636652</v>
       </c>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
     </row>
-    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>19.190000000000001</v>
       </c>
@@ -3927,12 +3894,8 @@
         <f t="shared" si="1"/>
         <v>7.2591895286719872</v>
       </c>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
@@ -3952,7 +3915,7 @@
         <v>11.853324236778752</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>3.49</v>
       </c>

--- a/force_calculations.xlsx
+++ b/force_calculations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bdaha\Documents\GitHub\commapogo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MaxYoung\OneDrive - Tiger Optics\Documents\commapogo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA72389A-B214-49D5-AFF2-73F21F05A338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365B7E7A-5A09-444F-BB27-637D571F5EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5160" windowWidth="29040" windowHeight="16440" xr2:uid="{6BFD6DE9-8C03-4167-ADB1-1BE53FC596A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6BFD6DE9-8C03-4167-ADB1-1BE53FC596A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Safety Calculations" sheetId="1" r:id="rId1"/>
@@ -3236,8 +3236,8 @@
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="6684818" y="1376795"/>
-    <xdr:ext cx="4828430" cy="3442673"/>
+    <xdr:pos x="6283037" y="327313"/>
+    <xdr:ext cx="6166138" cy="4216112"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="Chart 5">
@@ -3598,8 +3598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629D247D-C69E-4F80-AEFB-C1F8182EA819}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/force_calculations.xlsx
+++ b/force_calculations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MaxYoung\OneDrive - Tiger Optics\Documents\commapogo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bdaha\Documents\GitHub\commapogo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365B7E7A-5A09-444F-BB27-637D571F5EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474A5CD8-9C75-48C8-AB9F-D99D0352E514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6BFD6DE9-8C03-4167-ADB1-1BE53FC596A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6BFD6DE9-8C03-4167-ADB1-1BE53FC596A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Safety Calculations" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{E0D2AB1C-C41C-4098-BBE1-3588EDA2393F}">
+    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{E0D2AB1C-C41C-4098-BBE1-3588EDA2393F}">
       <text>
         <r>
           <rPr>
@@ -88,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F22" authorId="0" shapeId="0" xr:uid="{ADC1AD87-6389-4E6D-98C7-14C255B92D4A}">
+    <comment ref="F24" authorId="0" shapeId="0" xr:uid="{ADC1AD87-6389-4E6D-98C7-14C255B92D4A}">
       <text>
         <r>
           <rPr>
@@ -112,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{637BC005-84ED-4B36-AD16-D2D1D76DC17F}">
+    <comment ref="F34" authorId="0" shapeId="0" xr:uid="{637BC005-84ED-4B36-AD16-D2D1D76DC17F}">
       <text>
         <r>
           <rPr>
@@ -371,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -404,6 +404,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -565,10 +566,10 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>'Safety Calculations'!$B$2:$B$11</c:f>
+              <c:f>'Safety Calculations'!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>90</c:v>
                 </c:pt>
@@ -591,12 +592,15 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -604,10 +608,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Safety Calculations'!$F$2:$F$11</c:f>
+              <c:f>'Safety Calculations'!$F$2:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>8.2816597543881427E-16</c:v>
                 </c:pt>
@@ -630,12 +634,15 @@
                   <c:v>11.074475898382305</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>11.991888639138484</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>12.252772625093558</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>13.058775055793454</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>13.519438760596316</c:v>
                 </c:pt>
               </c:numCache>
@@ -653,7 +660,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Safety Calculations'!$A$12</c:f>
+              <c:f>'Safety Calculations'!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -712,10 +719,10 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>'Safety Calculations'!$B$12:$B$21</c:f>
+              <c:f>'Safety Calculations'!$B$13:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>90</c:v>
                 </c:pt>
@@ -738,12 +745,15 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -751,10 +761,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Safety Calculations'!$F$12:$F$21</c:f>
+              <c:f>'Safety Calculations'!$F$13:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1.7181086560725241E-15</c:v>
                 </c:pt>
@@ -777,12 +787,15 @@
                   <c:v>22.975047836752047</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>24.878307349737028</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>25.419535856815717</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>27.091664142775826</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>28.047354574685766</c:v>
                 </c:pt>
               </c:numCache>
@@ -800,7 +813,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Safety Calculations'!$A$22</c:f>
+              <c:f>'Safety Calculations'!$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -857,7 +870,7 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>'Safety Calculations'!$B$22:$B$31</c:f>
+              <c:f>'Safety Calculations'!$B$24:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -896,7 +909,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Safety Calculations'!$F$22:$F$31</c:f>
+              <c:f>'Safety Calculations'!$F$24:$F$33</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -945,7 +958,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Safety Calculations'!$A$32</c:f>
+              <c:f>'Safety Calculations'!$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1004,7 +1017,7 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>'Safety Calculations'!$B$32:$B$41</c:f>
+              <c:f>'Safety Calculations'!$B$34:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1043,7 +1056,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Safety Calculations'!$F$32:$F$41</c:f>
+              <c:f>'Safety Calculations'!$F$34:$F$43</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1435,10 +1448,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Safety Calculations'!$B$2:$B$11</c:f>
+              <c:f>'Safety Calculations'!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>90</c:v>
                 </c:pt>
@@ -1461,12 +1474,15 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1474,10 +1490,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Safety Calculations'!$F$2:$F$11</c:f>
+              <c:f>'Safety Calculations'!$F$2:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>8.2816597543881427E-16</c:v>
                 </c:pt>
@@ -1500,12 +1516,15 @@
                   <c:v>11.074475898382305</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>11.991888639138484</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>12.252772625093558</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>13.058775055793454</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>13.519438760596316</c:v>
                 </c:pt>
               </c:numCache>
@@ -1523,7 +1542,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Safety Calculations'!$A$12</c:f>
+              <c:f>'Safety Calculations'!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1558,10 +1577,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Safety Calculations'!$B$12:$B$21</c:f>
+              <c:f>'Safety Calculations'!$B$13:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>90</c:v>
                 </c:pt>
@@ -1584,12 +1603,15 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1597,10 +1619,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Safety Calculations'!$F$12:$F$21</c:f>
+              <c:f>'Safety Calculations'!$F$13:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1.7181086560725241E-15</c:v>
                 </c:pt>
@@ -1623,12 +1645,15 @@
                   <c:v>22.975047836752047</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>24.878307349737028</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>25.419535856815717</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>27.091664142775826</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>28.047354574685766</c:v>
                 </c:pt>
               </c:numCache>
@@ -1646,7 +1671,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Safety Calculations'!$A$22</c:f>
+              <c:f>'Safety Calculations'!$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1681,7 +1706,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Safety Calculations'!$B$22:$B$31</c:f>
+              <c:f>'Safety Calculations'!$B$24:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1720,7 +1745,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Safety Calculations'!$F$22:$F$31</c:f>
+              <c:f>'Safety Calculations'!$F$24:$F$33</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1769,7 +1794,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Safety Calculations'!$A$32</c:f>
+              <c:f>'Safety Calculations'!$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1804,7 +1829,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Safety Calculations'!$B$32:$B$41</c:f>
+              <c:f>'Safety Calculations'!$B$34:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1843,7 +1868,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Safety Calculations'!$F$32:$F$41</c:f>
+              <c:f>'Safety Calculations'!$F$34:$F$43</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3236,7 +3261,7 @@
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="6283037" y="327313"/>
+    <xdr:pos x="6635462" y="1565563"/>
     <xdr:ext cx="6166138" cy="4216112"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3596,10 +3621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629D247D-C69E-4F80-AEFB-C1F8182EA819}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="B9" sqref="B9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3644,7 +3669,7 @@
         <v>2.5755961836147122E-16</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" ref="D2:D14" si="0">C2*9.8</f>
+        <f t="shared" ref="D2:D15" si="0">C2*9.8</f>
         <v>2.5240842599424181E-15</v>
       </c>
       <c r="E2" s="2">
@@ -3652,7 +3677,7 @@
         <v>3.0478000000000001</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F14" si="1">D2/$E$2</f>
+        <f t="shared" ref="F2:F15" si="1">D2/$E$2</f>
         <v>8.2816597543881427E-16</v>
       </c>
     </row>
@@ -3664,7 +3689,7 @@
         <v>85</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C11" si="2">($A$4/2.2)*COS(RADIANS(B3))</f>
+        <f t="shared" ref="C3:C12" si="2">($A$4/2.2)*COS(RADIANS(B3))</f>
         <v>0.36645028200719898</v>
       </c>
       <c r="D3" s="2">
@@ -3779,651 +3804,687 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>25</v>
+      <c r="A9" s="22"/>
+      <c r="B9" s="5">
+        <v>27.5</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="2"/>
-        <v>3.8106122864040959</v>
+        <f>($A$4/2.2)*COS(RADIANS(B9))</f>
+        <v>3.7294773667720684</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>37.344000406760145</v>
+        <v>36.548878194366274</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="1"/>
-        <v>12.252772625093558</v>
+        <v>11.991888639138484</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="2"/>
-        <v>4.0612790423517637</v>
+        <v>3.8106122864040959</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>39.80053461504729</v>
+        <v>37.344000406760145</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="1"/>
+        <v>12.252772625093558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="2"/>
+        <v>4.0612790423517637</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>39.80053461504729</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="1"/>
         <v>13.058775055793454</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9">
         <v>0</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C12" s="10">
         <f t="shared" si="2"/>
         <v>4.2045454545454541</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D12" s="10">
         <f t="shared" si="0"/>
         <v>41.204545454545453</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="11">
+      <c r="E12" s="8"/>
+      <c r="F12" s="11">
         <f t="shared" si="1"/>
         <v>13.519438760596316</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B13" s="1">
         <v>90</v>
       </c>
-      <c r="C12" s="2">
-        <f>($A$14/2.2)*COS(RADIANS(B12))</f>
+      <c r="C13" s="2">
+        <f>($A$15/2.2)*COS(RADIANS(B13))</f>
         <v>5.3433179203855495E-16</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D13" s="2">
         <f t="shared" si="0"/>
         <v>5.236451561977839E-15</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E13" s="2">
         <f>0.311*9.8</f>
         <v>3.0478000000000001</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F13" s="3">
         <f t="shared" si="1"/>
         <v>1.7181086560725241E-15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B14" s="1">
         <v>85</v>
       </c>
-      <c r="C13" s="2">
-        <f t="shared" ref="C13:C21" si="3">($A$14/2.2)*COS(RADIANS(B13))</f>
+      <c r="C14" s="2">
+        <f t="shared" ref="C14:C23" si="3">($A$15/2.2)*COS(RADIANS(B14))</f>
         <v>0.76023577423979982</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D14" s="2">
         <f t="shared" si="0"/>
         <v>7.4503105875500388</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F14" s="3">
         <f t="shared" si="1"/>
         <v>2.4444880200636652</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
         <v>19.190000000000001</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B15" s="1">
         <v>75</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C15" s="2">
         <f t="shared" si="3"/>
         <v>2.2576079434169878</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="2">
         <f t="shared" si="0"/>
         <v>22.124557845486482</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F15" s="3">
         <f t="shared" si="1"/>
         <v>7.2591895286719872</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B16" s="5">
         <v>65</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2">
         <f t="shared" si="3"/>
         <v>3.6863838376381919</v>
       </c>
-      <c r="D15" s="2">
-        <f t="shared" ref="D15:D24" si="4">C15*9.8</f>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16:D26" si="4">C16*9.8</f>
         <v>36.126561608854281</v>
       </c>
-      <c r="F15" s="3">
-        <f t="shared" ref="F15:F24" si="5">D15/$E$2</f>
+      <c r="F16" s="3">
+        <f t="shared" ref="F16:F26" si="5">D16/$E$2</f>
         <v>11.853324236778752</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
         <v>3.49</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B17" s="5">
         <v>55</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="2">
         <f t="shared" si="3"/>
         <v>5.0031508243529892</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D17" s="2">
         <f t="shared" si="4"/>
         <v>49.030878078659299</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F17" s="3">
         <f t="shared" si="5"/>
         <v>16.087301686022474</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B18" s="17">
         <v>45</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C18" s="18">
         <f t="shared" si="3"/>
         <v>6.1678996049862942</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D18" s="18">
         <f t="shared" si="4"/>
         <v>60.445416128865688</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20">
+      <c r="E18" s="19"/>
+      <c r="F18" s="20">
         <f t="shared" si="5"/>
         <v>19.832474614103841</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16">
-        <f>A16*4</f>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
+        <f>A17*4</f>
         <v>13.96</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B19" s="5">
         <v>35</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C19" s="2">
         <f t="shared" si="3"/>
         <v>7.1452398772298871</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D19" s="2">
         <f t="shared" si="4"/>
         <v>70.023350796852895</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F19" s="3">
         <f t="shared" si="5"/>
         <v>22.975047836752047</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="1">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="5">
+        <v>27.5</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="3"/>
+        <v>7.7371535857682154</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="4"/>
+        <v>75.824105140528516</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="5"/>
+        <v>24.878307349737028</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
         <v>25</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C21" s="2">
         <f t="shared" si="3"/>
         <v>7.9054756514696871</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D21" s="2">
         <f t="shared" si="4"/>
         <v>77.473661384402945</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F21" s="3">
         <f t="shared" si="5"/>
         <v>25.419535856815717</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="1">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
         <v>15</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C22" s="2">
         <f t="shared" si="3"/>
         <v>8.4255075484032815</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D22" s="2">
         <f t="shared" si="4"/>
         <v>82.569973974352166</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F22" s="3">
         <f t="shared" si="5"/>
         <v>27.091664142775826</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9">
         <v>0</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C23" s="10">
         <f t="shared" si="3"/>
         <v>8.7227272727272727</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D23" s="10">
         <f t="shared" si="4"/>
         <v>85.482727272727274</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="11">
+      <c r="E23" s="8"/>
+      <c r="F23" s="11">
         <f t="shared" si="5"/>
         <v>28.047354574685766</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B24" s="1">
         <v>90</v>
       </c>
-      <c r="C22" s="2">
-        <f>($A$24/2.2)*COS(RADIANS(B22))</f>
+      <c r="C24" s="2">
+        <f>($A$26/2.2)*COS(RADIANS(B24))</f>
         <v>7.7407106923771895E-16</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D24" s="2">
         <f t="shared" si="4"/>
         <v>7.5858964785296464E-15</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E24" s="2">
         <f>0.311*9.8</f>
         <v>3.0478000000000001</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F24" s="3">
         <f t="shared" si="5"/>
         <v>2.4889744991566527E-15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="1">
-        <v>85</v>
-      </c>
-      <c r="C23" s="2">
-        <f t="shared" ref="C23:C31" si="6">($A$24/2.2)*COS(RADIANS(B23))</f>
-        <v>1.1013316583567709</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="4"/>
-        <v>10.793050251896355</v>
-      </c>
-      <c r="F23" s="3">
-        <f t="shared" si="5"/>
-        <v>3.5412593516294883</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
-        <v>27.8</v>
-      </c>
-      <c r="B24" s="1">
-        <v>75</v>
-      </c>
-      <c r="C24" s="2">
-        <f t="shared" si="6"/>
-        <v>3.2705315699318525</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="4"/>
-        <v>32.051209385332157</v>
-      </c>
-      <c r="F24" s="3">
-        <f t="shared" si="5"/>
-        <v>10.516178681452903</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1">
+        <v>85</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" ref="C25:C33" si="6">($A$26/2.2)*COS(RADIANS(B25))</f>
+        <v>1.1013316583567709</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="4"/>
+        <v>10.793050251896355</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="5"/>
+        <v>3.5412593516294883</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>27.8</v>
+      </c>
+      <c r="B26" s="1">
+        <v>75</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="6"/>
+        <v>3.2705315699318525</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="4"/>
+        <v>32.051209385332157</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="5"/>
+        <v>10.516178681452903</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B27" s="5">
         <v>65</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C27" s="2">
         <f t="shared" si="6"/>
         <v>5.3403580347233834</v>
       </c>
-      <c r="D25" s="2">
-        <f t="shared" ref="D25:D41" si="7">C25*9.8</f>
+      <c r="D27" s="2">
+        <f t="shared" ref="D27:D43" si="7">C27*9.8</f>
         <v>52.335508740289164</v>
       </c>
-      <c r="F25" s="3">
-        <f t="shared" ref="F25:F41" si="8">D25/$E$2</f>
+      <c r="F27" s="3">
+        <f t="shared" ref="F27:F43" si="8">D27/$E$2</f>
         <v>17.17156924348355</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
         <v>5.92</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B28" s="5">
         <v>55</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C28" s="2">
         <f t="shared" si="6"/>
         <v>7.2479204229814007</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D28" s="2">
         <f t="shared" si="7"/>
         <v>71.029620145217734</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F28" s="3">
         <f t="shared" si="8"/>
         <v>23.30521036328425</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B29" s="17">
         <v>45</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C29" s="18">
         <f t="shared" si="6"/>
         <v>8.935258416811827</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D29" s="18">
         <f t="shared" si="7"/>
         <v>87.565532484755906</v>
       </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20">
+      <c r="E29" s="19"/>
+      <c r="F29" s="20">
         <f t="shared" si="8"/>
         <v>28.730734459202015</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="16">
-        <f>A26*4</f>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="16">
+        <f>A28*4</f>
         <v>23.68</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B30" s="5">
         <v>35</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C30" s="2">
         <f t="shared" si="6"/>
         <v>10.35110310510635</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D30" s="2">
         <f t="shared" si="7"/>
         <v>101.44081043004225</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F30" s="3">
         <f t="shared" si="8"/>
         <v>33.283289727030066</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="1">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
         <v>25</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C31" s="2">
         <f t="shared" si="6"/>
         <v>11.452434763463121</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D31" s="2">
         <f t="shared" si="7"/>
         <v>112.23386068193859</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F31" s="3">
         <f t="shared" si="8"/>
         <v>36.824549078659558</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="1">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
         <v>15</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C32" s="2">
         <f t="shared" si="6"/>
         <v>12.20578998674368</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D32" s="2">
         <f t="shared" si="7"/>
         <v>119.61674187008808</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F32" s="3">
         <f t="shared" si="8"/>
         <v>39.246913140654925</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="9">
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="21"/>
+      <c r="B33" s="9">
         <v>0</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C33" s="10">
         <f t="shared" si="6"/>
         <v>12.636363636363635</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D33" s="10">
         <f t="shared" si="7"/>
         <v>123.83636363636363</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="11">
+      <c r="E33" s="8"/>
+      <c r="F33" s="11">
         <f t="shared" si="8"/>
         <v>40.631394329143525</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B34" s="1">
         <v>90</v>
       </c>
-      <c r="C32" s="2">
-        <f>($A$34/2.2)*COS(RADIANS(B32))</f>
+      <c r="C34" s="2">
+        <f>($A$36/2.2)*COS(RADIANS(B34))</f>
         <v>3.1519728430830858E-16</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D34" s="2">
         <f t="shared" si="7"/>
         <v>3.0889333862214242E-15</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E34" s="2">
         <f>0.311*9.8</f>
         <v>3.0478000000000001</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F34" s="3">
         <f t="shared" si="8"/>
         <v>1.0134960910235002E-15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="1">
-        <v>85</v>
-      </c>
-      <c r="C33" s="2">
-        <f t="shared" ref="C33:C41" si="9">($A$34/2.2)*COS(RADIANS(B33))</f>
-        <v>0.44845591268340462</v>
-      </c>
-      <c r="D33" s="2">
-        <f t="shared" si="7"/>
-        <v>4.3948679442973653</v>
-      </c>
-      <c r="F33" s="3">
-        <f t="shared" si="8"/>
-        <v>1.4419804266347416</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
-        <v>11.32</v>
-      </c>
-      <c r="B34" s="1">
-        <v>75</v>
-      </c>
-      <c r="C34" s="2">
-        <f t="shared" si="9"/>
-        <v>1.3317416320729705</v>
-      </c>
-      <c r="D34" s="2">
-        <f t="shared" si="7"/>
-        <v>13.051067994315112</v>
-      </c>
-      <c r="F34" s="3">
-        <f t="shared" si="8"/>
-        <v>4.282127434318233</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="1">
+        <v>85</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" ref="C35:C43" si="9">($A$36/2.2)*COS(RADIANS(B35))</f>
+        <v>0.44845591268340462</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="7"/>
+        <v>4.3948679442973653</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="8"/>
+        <v>1.4419804266347416</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>11.32</v>
+      </c>
+      <c r="B36" s="1">
+        <v>75</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="9"/>
+        <v>1.3317416320729705</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="7"/>
+        <v>13.051067994315112</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="8"/>
+        <v>4.282127434318233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B37" s="5">
         <v>65</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C37" s="2">
         <f t="shared" si="9"/>
         <v>2.1745630558657809</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D37" s="2">
         <f t="shared" si="7"/>
         <v>21.310717947484655</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F37" s="3">
         <f t="shared" si="8"/>
         <v>6.9921641667710004</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="14">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
         <v>1.71</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B38" s="5">
         <v>55</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C38" s="2">
         <f t="shared" si="9"/>
         <v>2.9513114815881103</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D38" s="2">
         <f t="shared" si="7"/>
         <v>28.922852519563484</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F38" s="3">
         <f t="shared" si="8"/>
         <v>9.4897475292222211</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B39" s="17">
         <v>45</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C39" s="18">
         <f t="shared" si="9"/>
         <v>3.6383858013780541</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D39" s="18">
         <f t="shared" si="7"/>
         <v>35.656180853504935</v>
       </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="20">
+      <c r="E39" s="19"/>
+      <c r="F39" s="20">
         <f t="shared" si="8"/>
         <v>11.698989715041977</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="16">
-        <f>A36*4</f>
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="16">
+        <f>A38*4</f>
         <v>6.84</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B40" s="5">
         <v>35</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C40" s="2">
         <f t="shared" si="9"/>
         <v>4.2149096097051757</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D40" s="2">
         <f t="shared" si="7"/>
         <v>41.306114175110721</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F40" s="3">
         <f t="shared" si="8"/>
         <v>13.552764018344616</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="1">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
         <v>25</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C41" s="2">
         <f t="shared" si="9"/>
         <v>4.663365522388581</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D41" s="2">
         <f t="shared" si="7"/>
         <v>45.700982119408096</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F41" s="3">
         <f t="shared" si="8"/>
         <v>14.994744444979361</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="1">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
         <v>15</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C42" s="2">
         <f t="shared" si="9"/>
         <v>4.9701274334510241</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D42" s="2">
         <f t="shared" si="7"/>
         <v>48.70724884782004</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F42" s="3">
         <f t="shared" si="8"/>
         <v>15.981117149360207</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
-      <c r="B41" s="9">
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9">
         <v>0</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C43" s="10">
         <f t="shared" si="9"/>
         <v>5.1454545454545455</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D43" s="10">
         <f t="shared" si="7"/>
         <v>50.425454545454549</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="11">
+      <c r="E43" s="8"/>
+      <c r="F43" s="11">
         <f t="shared" si="8"/>
         <v>16.544869921075708</v>
       </c>

--- a/force_calculations.xlsx
+++ b/force_calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bdaha\Documents\GitHub\commapogo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474A5CD8-9C75-48C8-AB9F-D99D0352E514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BF7466-10FE-40CD-9481-50ED96C9B6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6BFD6DE9-8C03-4167-ADB1-1BE53FC596A2}"/>
   </bookViews>
@@ -3261,7 +3261,7 @@
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="6635462" y="1565563"/>
+    <xdr:pos x="6083012" y="1689388"/>
     <xdr:ext cx="6166138" cy="4216112"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3624,7 +3624,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:F9"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/force_calculations.xlsx
+++ b/force_calculations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bdaha\Documents\GitHub\commapogo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MaxYoung\OneDrive - Tiger Optics\Documents\commapogo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BF7466-10FE-40CD-9481-50ED96C9B6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD74E9F-16B4-49EE-9549-3FA01FD0D619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6BFD6DE9-8C03-4167-ADB1-1BE53FC596A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6BFD6DE9-8C03-4167-ADB1-1BE53FC596A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Safety Calculations" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F34" authorId="0" shapeId="0" xr:uid="{637BC005-84ED-4B36-AD16-D2D1D76DC17F}">
+    <comment ref="F35" authorId="0" shapeId="0" xr:uid="{637BC005-84ED-4B36-AD16-D2D1D76DC17F}">
       <text>
         <r>
           <rPr>
@@ -371,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -405,6 +405,7 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -870,10 +871,10 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>'Safety Calculations'!$B$24:$B$33</c:f>
+              <c:f>'Safety Calculations'!$B$24:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>90</c:v>
                 </c:pt>
@@ -896,12 +897,15 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -909,10 +913,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Safety Calculations'!$F$24:$F$33</c:f>
+              <c:f>'Safety Calculations'!$F$24:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2.4889744991566527E-15</c:v>
                 </c:pt>
@@ -935,12 +939,15 @@
                   <c:v>33.283289727030066</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>36.04048693708647</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>36.824549078659558</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>39.246913140654925</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>40.631394329143525</c:v>
                 </c:pt>
               </c:numCache>
@@ -958,7 +965,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Safety Calculations'!$A$34</c:f>
+              <c:f>'Safety Calculations'!$A$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1017,10 +1024,10 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>'Safety Calculations'!$B$34:$B$43</c:f>
+              <c:f>'Safety Calculations'!$B$35:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>90</c:v>
                 </c:pt>
@@ -1043,12 +1050,15 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1056,10 +1066,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Safety Calculations'!$F$34:$F$43</c:f>
+              <c:f>'Safety Calculations'!$F$35:$F$45</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1.0134960910235002E-15</c:v>
                 </c:pt>
@@ -1082,12 +1092,15 @@
                   <c:v>13.552764018344616</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>14.675478853518666</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>14.994744444979361</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>15.981117149360207</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>16.544869921075708</c:v>
                 </c:pt>
               </c:numCache>
@@ -1706,10 +1719,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Safety Calculations'!$B$24:$B$33</c:f>
+              <c:f>'Safety Calculations'!$B$24:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>90</c:v>
                 </c:pt>
@@ -1732,12 +1745,15 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1745,10 +1761,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Safety Calculations'!$F$24:$F$33</c:f>
+              <c:f>'Safety Calculations'!$F$24:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2.4889744991566527E-15</c:v>
                 </c:pt>
@@ -1771,12 +1787,15 @@
                   <c:v>33.283289727030066</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>36.04048693708647</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>36.824549078659558</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>39.246913140654925</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>40.631394329143525</c:v>
                 </c:pt>
               </c:numCache>
@@ -1794,7 +1813,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Safety Calculations'!$A$34</c:f>
+              <c:f>'Safety Calculations'!$A$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1829,10 +1848,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Safety Calculations'!$B$34:$B$43</c:f>
+              <c:f>'Safety Calculations'!$B$35:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>90</c:v>
                 </c:pt>
@@ -1855,12 +1874,15 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1868,10 +1890,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Safety Calculations'!$F$34:$F$43</c:f>
+              <c:f>'Safety Calculations'!$F$35:$F$45</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1.0134960910235002E-15</c:v>
                 </c:pt>
@@ -1894,12 +1916,15 @@
                   <c:v>13.552764018344616</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>14.675478853518666</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>14.994744444979361</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>15.981117149360207</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>16.544869921075708</c:v>
                 </c:pt>
               </c:numCache>
@@ -3621,10 +3646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629D247D-C69E-4F80-AEFB-C1F8182EA819}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4123,7 +4148,7 @@
         <v>85</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" ref="C25:C33" si="6">($A$26/2.2)*COS(RADIANS(B25))</f>
+        <f t="shared" ref="C25:C34" si="6">($A$26/2.2)*COS(RADIANS(B25))</f>
         <v>1.1013316583567709</v>
       </c>
       <c r="D25" s="2">
@@ -4167,11 +4192,11 @@
         <v>5.3403580347233834</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" ref="D27:D43" si="7">C27*9.8</f>
+        <f t="shared" ref="D27:D45" si="7">C27*9.8</f>
         <v>52.335508740289164</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" ref="F27:F43" si="8">D27/$E$2</f>
+        <f t="shared" ref="F27:F45" si="8">D27/$E$2</f>
         <v>17.17156924348355</v>
       </c>
     </row>
@@ -4238,253 +4263,289 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="1">
-        <v>25</v>
+      <c r="A31" s="23"/>
+      <c r="B31" s="5">
+        <v>27.5</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="6"/>
-        <v>11.452434763463121</v>
+        <f t="shared" ref="C31" si="9">($A$26/2.2)*COS(RADIANS(B31))</f>
+        <v>11.208591437433892</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="7"/>
-        <v>112.23386068193859</v>
+        <f t="shared" ref="D31" si="10">C31*9.8</f>
+        <v>109.84419608685215</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="8"/>
-        <v>36.824549078659558</v>
+        <f t="shared" ref="F31" si="11">D31/$E$2</f>
+        <v>36.04048693708647</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="6"/>
-        <v>12.20578998674368</v>
+        <v>11.452434763463121</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" si="7"/>
-        <v>119.61674187008808</v>
+        <v>112.23386068193859</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" si="8"/>
+        <v>36.824549078659558</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>15</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="6"/>
+        <v>12.20578998674368</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="7"/>
+        <v>119.61674187008808</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="8"/>
         <v>39.246913140654925</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
-      <c r="B33" s="9">
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21"/>
+      <c r="B34" s="9">
         <v>0</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C34" s="10">
         <f t="shared" si="6"/>
         <v>12.636363636363635</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D34" s="10">
         <f t="shared" si="7"/>
         <v>123.83636363636363</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="11">
+      <c r="E34" s="8"/>
+      <c r="F34" s="11">
         <f t="shared" si="8"/>
         <v>40.631394329143525</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B35" s="1">
         <v>90</v>
       </c>
-      <c r="C34" s="2">
-        <f>($A$36/2.2)*COS(RADIANS(B34))</f>
+      <c r="C35" s="2">
+        <f>($A$37/2.2)*COS(RADIANS(B35))</f>
         <v>3.1519728430830858E-16</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D35" s="2">
         <f t="shared" si="7"/>
         <v>3.0889333862214242E-15</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E35" s="2">
         <f>0.311*9.8</f>
         <v>3.0478000000000001</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F35" s="3">
         <f t="shared" si="8"/>
         <v>1.0134960910235002E-15</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B36" s="1">
         <v>85</v>
       </c>
-      <c r="C35" s="2">
-        <f t="shared" ref="C35:C43" si="9">($A$36/2.2)*COS(RADIANS(B35))</f>
+      <c r="C36" s="2">
+        <f t="shared" ref="C36:C45" si="12">($A$37/2.2)*COS(RADIANS(B36))</f>
         <v>0.44845591268340462</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D36" s="2">
         <f t="shared" si="7"/>
         <v>4.3948679442973653</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F36" s="3">
         <f t="shared" si="8"/>
         <v>1.4419804266347416</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
+    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
         <v>11.32</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B37" s="1">
         <v>75</v>
       </c>
-      <c r="C36" s="2">
-        <f t="shared" si="9"/>
+      <c r="C37" s="2">
+        <f t="shared" si="12"/>
         <v>1.3317416320729705</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D37" s="2">
         <f t="shared" si="7"/>
         <v>13.051067994315112</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F37" s="3">
         <f t="shared" si="8"/>
         <v>4.282127434318233</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B38" s="5">
         <v>65</v>
       </c>
-      <c r="C37" s="2">
-        <f t="shared" si="9"/>
+      <c r="C38" s="2">
+        <f t="shared" si="12"/>
         <v>2.1745630558657809</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D38" s="2">
         <f t="shared" si="7"/>
         <v>21.310717947484655</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F38" s="3">
         <f t="shared" si="8"/>
         <v>6.9921641667710004</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="14">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="14">
         <v>1.71</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B39" s="5">
         <v>55</v>
       </c>
-      <c r="C38" s="2">
-        <f t="shared" si="9"/>
+      <c r="C39" s="2">
+        <f t="shared" si="12"/>
         <v>2.9513114815881103</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D39" s="2">
         <f t="shared" si="7"/>
         <v>28.922852519563484</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F39" s="3">
         <f t="shared" si="8"/>
         <v>9.4897475292222211</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B40" s="17">
         <v>45</v>
       </c>
-      <c r="C39" s="18">
-        <f t="shared" si="9"/>
+      <c r="C40" s="18">
+        <f t="shared" si="12"/>
         <v>3.6383858013780541</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D40" s="18">
         <f t="shared" si="7"/>
         <v>35.656180853504935</v>
       </c>
-      <c r="E39" s="19"/>
-      <c r="F39" s="20">
+      <c r="E40" s="19"/>
+      <c r="F40" s="20">
         <f t="shared" si="8"/>
         <v>11.698989715041977</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="16">
-        <f>A38*4</f>
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="16">
+        <f>A39*4</f>
         <v>6.84</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B41" s="5">
         <v>35</v>
       </c>
-      <c r="C40" s="2">
-        <f t="shared" si="9"/>
+      <c r="C41" s="2">
+        <f t="shared" si="12"/>
         <v>4.2149096097051757</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D41" s="2">
         <f t="shared" si="7"/>
         <v>41.306114175110721</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F41" s="3">
         <f t="shared" si="8"/>
         <v>13.552764018344616</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="1">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="23"/>
+      <c r="B42" s="5">
+        <v>27.5</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" si="12"/>
+        <v>4.5640739234443046</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="7"/>
+        <v>44.727924449754191</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="8"/>
+        <v>14.675478853518666</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
         <v>25</v>
       </c>
-      <c r="C41" s="2">
-        <f t="shared" si="9"/>
+      <c r="C43" s="2">
+        <f t="shared" si="12"/>
         <v>4.663365522388581</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D43" s="2">
         <f t="shared" si="7"/>
         <v>45.700982119408096</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F43" s="3">
         <f t="shared" si="8"/>
         <v>14.994744444979361</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="1">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
         <v>15</v>
       </c>
-      <c r="C42" s="2">
-        <f t="shared" si="9"/>
+      <c r="C44" s="2">
+        <f t="shared" si="12"/>
         <v>4.9701274334510241</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D44" s="2">
         <f t="shared" si="7"/>
         <v>48.70724884782004</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F44" s="3">
         <f t="shared" si="8"/>
         <v>15.981117149360207</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
-      <c r="B43" s="9">
+    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="8"/>
+      <c r="B45" s="9">
         <v>0</v>
       </c>
-      <c r="C43" s="10">
-        <f t="shared" si="9"/>
+      <c r="C45" s="10">
+        <f t="shared" si="12"/>
         <v>5.1454545454545455</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D45" s="10">
         <f t="shared" si="7"/>
         <v>50.425454545454549</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="11">
+      <c r="E45" s="8"/>
+      <c r="F45" s="11">
         <f t="shared" si="8"/>
         <v>16.544869921075708</v>
       </c>
